--- a/docs/최종 결과.xlsx
+++ b/docs/최종 결과.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="25">
   <si>
     <t>1_buffer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,6 +113,10 @@
     <t>64GB Sequencial Write / READ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Multi_copy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -155,12 +159,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -169,7 +188,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -191,9 +210,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -438,11 +469,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$31</c:f>
+              <c:f>Sheet1!$E$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>new</c:v>
+                  <c:v>Multi_copy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -573,11 +604,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="42732544"/>
-        <c:axId val="40727296"/>
+        <c:axId val="118808576"/>
+        <c:axId val="85968576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="42732544"/>
+        <c:axId val="118808576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -587,7 +618,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40727296"/>
+        <c:crossAx val="85968576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -595,7 +626,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40727296"/>
+        <c:axId val="85968576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -606,7 +637,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42732544"/>
+        <c:crossAx val="118808576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -996,11 +1027,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="51151616"/>
-        <c:axId val="51153152"/>
+        <c:axId val="118810112"/>
+        <c:axId val="85970880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="51151616"/>
+        <c:axId val="118810112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1010,7 +1041,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51153152"/>
+        <c:crossAx val="85970880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1018,7 +1049,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51153152"/>
+        <c:axId val="85970880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1029,7 +1060,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51151616"/>
+        <c:crossAx val="118810112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1260,11 +1291,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="99756288"/>
-        <c:axId val="99758080"/>
+        <c:axId val="118811136"/>
+        <c:axId val="85973184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="99756288"/>
+        <c:axId val="118811136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1274,7 +1305,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99758080"/>
+        <c:crossAx val="85973184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1282,7 +1313,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99758080"/>
+        <c:axId val="85973184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1293,7 +1324,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99756288"/>
+        <c:crossAx val="118811136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1438,11 +1469,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="111150592"/>
-        <c:axId val="111152128"/>
+        <c:axId val="118812160"/>
+        <c:axId val="120144448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="111150592"/>
+        <c:axId val="118812160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1452,7 +1483,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111152128"/>
+        <c:crossAx val="120144448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1460,7 +1491,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111152128"/>
+        <c:axId val="120144448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1471,7 +1502,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111150592"/>
+        <c:crossAx val="118812160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1702,11 +1733,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="101016320"/>
-        <c:axId val="101017856"/>
+        <c:axId val="120225792"/>
+        <c:axId val="120146176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="101016320"/>
+        <c:axId val="120225792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1716,7 +1747,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101017856"/>
+        <c:crossAx val="120146176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1724,7 +1755,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101017856"/>
+        <c:axId val="120146176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1735,7 +1766,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101016320"/>
+        <c:crossAx val="120225792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1880,11 +1911,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="111164416"/>
-        <c:axId val="111563520"/>
+        <c:axId val="120226304"/>
+        <c:axId val="120148480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="111164416"/>
+        <c:axId val="120226304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1894,7 +1925,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111563520"/>
+        <c:crossAx val="120148480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1902,7 +1933,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111563520"/>
+        <c:axId val="120148480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1913,7 +1944,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111164416"/>
+        <c:crossAx val="120226304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1942,13 +1973,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>458954</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>195263</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1972,13 +2003,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>449429</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>195263</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2004,13 +2035,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>458954</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>195263</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2036,13 +2067,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>458954</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>185738</xdr:rowOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2068,13 +2099,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>449429</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>185738</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2100,13 +2131,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>458954</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>195263</xdr:rowOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2131,7 +2162,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2419,11 +2450,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
@@ -2444,257 +2479,260 @@
       <c r="N1" s="5"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="M2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="9">
         <v>26930</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="9">
         <v>27213</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="9">
         <v>27868</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="9">
         <v>28370</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="10">
         <v>1400</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="10">
         <v>1300</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="9">
         <v>28833</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="9">
         <v>26680</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="9">
         <v>26007</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="9">
         <v>27062</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="9">
         <v>2466</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="9">
         <v>1660</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="9">
         <v>22075</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="9">
         <v>22773</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="9">
         <v>17485</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="9">
         <v>24573</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="10">
         <v>1340</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="10">
         <v>1280</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="9">
         <v>19857</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="9">
         <v>23400</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="9">
         <v>15343</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="9">
         <v>25360</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="9">
         <v>2423</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="9">
         <v>1610</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="9">
         <v>14415</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="9">
         <v>13250</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="9">
         <v>8858</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="9">
         <v>19845</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="10">
         <v>1270</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="10">
         <v>1250</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="9">
         <v>12604</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="9">
         <v>12527</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="9">
         <v>8020</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="9">
         <v>21287</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="9">
         <v>2353</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="9">
         <v>1543</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="9">
         <v>7377</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="9">
         <v>6885</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="9">
         <v>4693</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="9">
         <v>10470</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="10">
         <v>1200</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="10">
         <v>1120</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="9">
         <v>6310</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="9">
         <v>6607</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="9">
         <v>4100</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="9">
         <v>11123</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="9">
         <v>2228</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="9">
         <v>1430</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="9">
         <v>31770</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="9">
         <v>49200</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="9">
         <v>37800</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="9">
         <v>56600</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="I7" s="3" t="s">
+      <c r="F7" s="9"/>
+      <c r="G7" s="10"/>
+      <c r="I7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="9">
         <v>43160</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="9">
         <v>43390</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="9">
         <v>34500</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="9">
         <v>47120</v>
       </c>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
@@ -2715,134 +2753,134 @@
       <c r="O8" s="4"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="E9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" s="2" t="s">
+      <c r="M9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="O9" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="9">
         <v>31.5</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="9">
         <v>29</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="9">
         <v>33</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="9">
         <v>62</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="10">
         <v>90</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="10">
         <v>85</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="9">
         <v>28</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="9">
         <v>28</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="9">
         <v>36</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="9">
         <v>72</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="9">
         <v>170</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="9">
         <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="9">
         <v>1.8</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="9">
         <v>6.88</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="9">
         <v>6.87</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="9">
         <v>1.8</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="10">
         <v>77</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="10">
         <v>77</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="9">
         <v>1.8</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="9">
         <v>13.8</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="9">
         <v>13.4</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="9">
         <v>1.8</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="9">
         <v>97</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="9">
         <v>97</v>
       </c>
     </row>

--- a/docs/최종 결과.xlsx
+++ b/docs/최종 결과.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="15315" windowHeight="8280"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="15315" windowHeight="8280" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="28">
   <si>
     <t>1_buffer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,6 +117,18 @@
     <t>Multi_copy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>MULTI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32GB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64GB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -204,12 +216,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -221,6 +227,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -261,7 +273,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="en-US"/>
-              <a:t>32GB RANDOM WRITE</a:t>
+              <a:t>32GB Random Write</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -604,11 +616,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="118808576"/>
-        <c:axId val="85968576"/>
+        <c:axId val="110599680"/>
+        <c:axId val="61433536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="118808576"/>
+        <c:axId val="110599680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -618,7 +630,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85968576"/>
+        <c:crossAx val="61433536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -626,7 +638,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85968576"/>
+        <c:axId val="61433536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -637,7 +649,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118808576"/>
+        <c:crossAx val="110599680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -684,7 +696,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="en-US"/>
-              <a:t>64GB RANDOM WRITE</a:t>
+              <a:t>64GB Random Write</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1027,11 +1039,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="118810112"/>
-        <c:axId val="85970880"/>
+        <c:axId val="121128448"/>
+        <c:axId val="61435840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="118810112"/>
+        <c:axId val="121128448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1041,7 +1053,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85970880"/>
+        <c:crossAx val="61435840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1049,7 +1061,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85970880"/>
+        <c:axId val="61435840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1060,7 +1072,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118810112"/>
+        <c:crossAx val="121128448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1107,13 +1119,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="en-US"/>
-              <a:t>32GB SEQUENTIAL</a:t>
+              <a:t>32GB Sequential Write/Read</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="en-US" baseline="0"/>
-              <a:t> WRITE/READ</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1291,11 +1298,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="118811136"/>
-        <c:axId val="85973184"/>
+        <c:axId val="121129472"/>
+        <c:axId val="61438144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="118811136"/>
+        <c:axId val="121129472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1305,7 +1312,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85973184"/>
+        <c:crossAx val="61438144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1313,7 +1320,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85973184"/>
+        <c:axId val="61438144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1324,7 +1331,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118811136"/>
+        <c:crossAx val="121129472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1371,8 +1378,21 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="en-US"/>
-              <a:t>32GB MULTI_USER 512B RANDOM WRITE</a:t>
+              <a:t>32GB Multi</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="en-US" baseline="0"/>
+              <a:t> User</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="en-US"/>
+              <a:t> 512B Random</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="en-US" baseline="0"/>
+              <a:t> Write</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1469,11 +1489,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="118812160"/>
-        <c:axId val="120144448"/>
+        <c:axId val="121129984"/>
+        <c:axId val="121520704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="118812160"/>
+        <c:axId val="121129984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1483,7 +1503,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120144448"/>
+        <c:crossAx val="121520704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1491,7 +1511,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120144448"/>
+        <c:axId val="121520704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1502,7 +1522,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118812160"/>
+        <c:crossAx val="121129984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1549,11 +1569,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="en-US"/>
-              <a:t>64GB SEQUENTIAL</a:t>
+              <a:t>64GB Sequential</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="en-US" baseline="0"/>
-              <a:t> WRITE/READ</a:t>
+              <a:t> Write/Read</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" altLang="en-US"/>
           </a:p>
@@ -1733,11 +1753,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="120225792"/>
-        <c:axId val="120146176"/>
+        <c:axId val="121130496"/>
+        <c:axId val="121522432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="120225792"/>
+        <c:axId val="121130496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1747,7 +1767,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120146176"/>
+        <c:crossAx val="121522432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1755,7 +1775,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120146176"/>
+        <c:axId val="121522432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1766,7 +1786,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120225792"/>
+        <c:crossAx val="121130496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1808,13 +1828,18 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
+            <a:pPr algn="ctr">
               <a:defRPr/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="en-US"/>
-              <a:t>32GB MULTI_USER 512B RANDOM WRITE</a:t>
+              <a:t>64GB Multi</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="en-US" baseline="0"/>
+              <a:t> User 512B Random Write</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1911,11 +1936,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="120226304"/>
-        <c:axId val="120148480"/>
+        <c:axId val="121630720"/>
+        <c:axId val="121524736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="120226304"/>
+        <c:axId val="121630720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1925,7 +1950,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120148480"/>
+        <c:crossAx val="121524736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1933,7 +1958,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120148480"/>
+        <c:axId val="121524736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1944,7 +1969,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120226304"/>
+        <c:crossAx val="121630720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2450,8 +2475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I7" activeCellId="1" sqref="I2:M2 I7:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2462,425 +2487,425 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
       <c r="G1" s="4"/>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="7">
         <v>26930</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>27213</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="7">
         <v>27868</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <v>28370</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="8">
         <v>1400</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="8">
         <v>1300</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="7">
         <v>28833</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="7">
         <v>26680</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="7">
         <v>26007</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="7">
         <v>27062</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="7">
         <v>2466</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="7">
         <v>1660</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="7">
         <v>22075</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="7">
         <v>22773</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="7">
         <v>17485</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <v>24573</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="8">
         <v>1340</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="8">
         <v>1280</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="7">
         <v>19857</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="7">
         <v>23400</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="7">
         <v>15343</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="7">
         <v>25360</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="7">
         <v>2423</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="7">
         <v>1610</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="7">
         <v>14415</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <v>13250</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <v>8858</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <v>19845</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="8">
         <v>1270</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="8">
         <v>1250</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="7">
         <v>12604</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="7">
         <v>12527</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="7">
         <v>8020</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="7">
         <v>21287</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="7">
         <v>2353</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="7">
         <v>1543</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="7">
         <v>7377</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="7">
         <v>6885</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="7">
         <v>4693</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="7">
         <v>10470</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="8">
         <v>1200</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="8">
         <v>1120</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="7">
         <v>6310</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="7">
         <v>6607</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="7">
         <v>4100</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="7">
         <v>11123</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="7">
         <v>2228</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O6" s="7">
         <v>1430</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="9">
+      <c r="A7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="7">
         <v>31770</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="7">
         <v>49200</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="7">
         <v>37800</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="7">
         <v>56600</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
-      <c r="I7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="9">
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="I7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="7">
         <v>43160</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="7">
         <v>43390</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="7">
         <v>34500</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="7">
         <v>47120</v>
       </c>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
       <c r="G8" s="1"/>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
       <c r="O8" s="4"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="M9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="N9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="O9" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="7">
         <v>31.5</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="7">
         <v>29</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="7">
         <v>33</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="7">
         <v>62</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="8">
         <v>90</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="8">
         <v>85</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="7">
         <v>28</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="7">
         <v>28</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="7">
         <v>36</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="7">
         <v>72</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="7">
         <v>170</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O10" s="7">
         <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="7">
         <v>1.8</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="7">
         <v>6.88</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="7">
         <v>6.87</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="7">
         <v>1.8</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="8">
         <v>77</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="8">
         <v>77</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="7">
         <v>1.8</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="7">
         <v>13.8</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="7">
         <v>13.4</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="7">
         <v>1.8</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="7">
         <v>97</v>
       </c>
-      <c r="O11" s="9">
+      <c r="O11" s="7">
         <v>97</v>
       </c>
     </row>
@@ -3248,12 +3273,104 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B4:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="6" max="6" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="7">
+        <v>31770</v>
+      </c>
+      <c r="D5" s="7">
+        <v>49200</v>
+      </c>
+      <c r="E5" s="7">
+        <v>37800</v>
+      </c>
+      <c r="F5" s="7">
+        <v>56600</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="7">
+        <v>43160</v>
+      </c>
+      <c r="D6" s="7">
+        <v>43390</v>
+      </c>
+      <c r="E6" s="7">
+        <v>34500</v>
+      </c>
+      <c r="F6" s="7">
+        <v>47120</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="7">
+        <v>43160</v>
+      </c>
+      <c r="D10" s="7">
+        <v>43390</v>
+      </c>
+      <c r="E10" s="7">
+        <v>34500</v>
+      </c>
+      <c r="F10" s="7">
+        <v>47120</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/최종 결과.xlsx
+++ b/docs/최종 결과.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="15315" windowHeight="8280" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="15315" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="28">
   <si>
     <t>1_buffer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -27,10 +27,6 @@
   </si>
   <si>
     <t>static</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>new</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -127,6 +123,10 @@
   </si>
   <si>
     <t>64GB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Single_512B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -236,7 +236,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -616,11 +616,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="110599680"/>
-        <c:axId val="61433536"/>
+        <c:axId val="99697792"/>
+        <c:axId val="99699328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="110599680"/>
+        <c:axId val="99697792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -630,7 +630,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61433536"/>
+        <c:crossAx val="99699328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -638,7 +638,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61433536"/>
+        <c:axId val="99699328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -649,7 +649,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110599680"/>
+        <c:crossAx val="99697792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -908,7 +908,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>new</c:v>
+                  <c:v>Multi_copy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1039,11 +1039,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="121128448"/>
-        <c:axId val="61435840"/>
+        <c:axId val="104401536"/>
+        <c:axId val="104403328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="121128448"/>
+        <c:axId val="104401536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1053,7 +1053,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61435840"/>
+        <c:crossAx val="104403328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1061,7 +1061,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61435840"/>
+        <c:axId val="104403328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1072,7 +1072,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121128448"/>
+        <c:crossAx val="104401536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1141,8 +1141,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11862184512222899"/>
-          <c:y val="0.11865527902173273"/>
+          <c:x val="0.12567421061896417"/>
+          <c:y val="0.12247025222079502"/>
           <c:w val="0.69491956922583165"/>
           <c:h val="0.79721825371554356"/>
         </c:manualLayout>
@@ -1181,7 +1181,7 @@
                   <c:v>static</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>new</c:v>
+                  <c:v>Multi_copy</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>tutorial_1</c:v>
@@ -1250,7 +1250,7 @@
                   <c:v>static</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>new</c:v>
+                  <c:v>Multi_copy</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>tutorial_1</c:v>
@@ -1298,11 +1298,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="121129472"/>
-        <c:axId val="61438144"/>
+        <c:axId val="104428672"/>
+        <c:axId val="104430208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="121129472"/>
+        <c:axId val="104428672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1312,7 +1312,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61438144"/>
+        <c:crossAx val="104430208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1320,7 +1320,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61438144"/>
+        <c:axId val="104430208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1331,7 +1331,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121129472"/>
+        <c:crossAx val="104428672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1453,7 +1453,7 @@
                   <c:v>static</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>new</c:v>
+                  <c:v>Multi_copy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1465,7 +1465,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>31770</c:v>
+                  <c:v>47770</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>49200</c:v>
@@ -1489,11 +1489,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="121129984"/>
-        <c:axId val="121520704"/>
+        <c:axId val="104450688"/>
+        <c:axId val="104460672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="121129984"/>
+        <c:axId val="104450688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1503,7 +1503,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121520704"/>
+        <c:crossAx val="104460672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1511,7 +1511,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121520704"/>
+        <c:axId val="104460672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1522,7 +1522,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121129984"/>
+        <c:crossAx val="104450688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1596,8 +1596,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11862184512222899"/>
-          <c:y val="0.11865527902173273"/>
+          <c:x val="0.11862182732989179"/>
+          <c:y val="0.12247025222079502"/>
           <c:w val="0.69491956922583165"/>
           <c:h val="0.79721825371554356"/>
         </c:manualLayout>
@@ -1636,7 +1636,7 @@
                   <c:v>static</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>new</c:v>
+                  <c:v>Multi_copy</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>tutorial_1</c:v>
@@ -1705,7 +1705,7 @@
                   <c:v>static</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>new</c:v>
+                  <c:v>Multi_copy</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>tutorial_1</c:v>
@@ -1753,11 +1753,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="121130496"/>
-        <c:axId val="121522432"/>
+        <c:axId val="104471552"/>
+        <c:axId val="104493824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="121130496"/>
+        <c:axId val="104471552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1767,7 +1767,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121522432"/>
+        <c:crossAx val="104493824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1775,7 +1775,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121522432"/>
+        <c:axId val="104493824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1786,7 +1786,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121130496"/>
+        <c:crossAx val="104471552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1900,7 +1900,7 @@
                   <c:v>static</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>new</c:v>
+                  <c:v>Multi_copy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1936,11 +1936,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="121630720"/>
-        <c:axId val="121524736"/>
+        <c:axId val="104514304"/>
+        <c:axId val="104515840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="121630720"/>
+        <c:axId val="104514304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1950,7 +1950,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121524736"/>
+        <c:crossAx val="104515840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1958,7 +1958,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121524736"/>
+        <c:axId val="104515840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1969,7 +1969,190 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121630720"/>
+        <c:crossAx val="104514304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="en-US"/>
+              <a:t>32GB 512B Random</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="en-US" baseline="0"/>
+              <a:t> Write</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.22177801873934855"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11862184512222899"/>
+          <c:y val="0.11865527902173273"/>
+          <c:w val="0.69491956922583165"/>
+          <c:h val="0.79721825371554356"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Single_512B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$31:$E$31</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1_buffer</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dynamic</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>static</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Multi_copy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$39:$E$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1293</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1177</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1261</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>540</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="40452864"/>
+        <c:axId val="40461824"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="40452864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="40461824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="40461824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="40452864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2060,13 +2243,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>458954</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>176213</xdr:rowOff>
+      <xdr:rowOff>157163</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2122,13 +2305,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:colOff>666750</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>449429</xdr:colOff>
+      <xdr:colOff>439904</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>166688</xdr:rowOff>
     </xdr:to>
@@ -2183,11 +2366,43 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>458954</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>185738</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9" title="32GB random write"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2473,10 +2688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I7" activeCellId="1" sqref="I2:M2 I7:M7"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="I63" sqref="I63:M64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2488,7 +2703,7 @@
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
@@ -2496,7 +2711,7 @@
       <c r="F1" s="9"/>
       <c r="G1" s="4"/>
       <c r="J1" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
@@ -2505,7 +2720,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>0</v>
@@ -2517,16 +2732,16 @@
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>0</v>
@@ -2538,18 +2753,18 @@
         <v>2</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="7">
         <v>26930</v>
@@ -2570,7 +2785,7 @@
         <v>1300</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3" s="7">
         <v>28833</v>
@@ -2593,7 +2808,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="7">
         <v>22075</v>
@@ -2614,7 +2829,7 @@
         <v>1280</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J4" s="7">
         <v>19857</v>
@@ -2637,7 +2852,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="7">
         <v>14415</v>
@@ -2658,7 +2873,7 @@
         <v>1250</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J5" s="7">
         <v>12604</v>
@@ -2681,7 +2896,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="7">
         <v>7377</v>
@@ -2702,7 +2917,7 @@
         <v>1120</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J6" s="7">
         <v>6310</v>
@@ -2725,7 +2940,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="7">
         <v>31770</v>
@@ -2742,7 +2957,7 @@
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
       <c r="I7" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J7" s="7">
         <v>43160</v>
@@ -2761,7 +2976,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -2769,7 +2984,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="1"/>
       <c r="J8" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
@@ -2779,7 +2994,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>0</v>
@@ -2791,16 +3006,16 @@
         <v>2</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>0</v>
@@ -2812,18 +3027,18 @@
         <v>2</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O9" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="7">
         <v>31.5</v>
@@ -2844,7 +3059,7 @@
         <v>85</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J10" s="7">
         <v>28</v>
@@ -2867,7 +3082,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="7">
         <v>1.8</v>
@@ -2888,7 +3103,7 @@
         <v>77</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J11" s="7">
         <v>1.8</v>
@@ -2919,7 +3134,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>0</v>
@@ -2931,16 +3146,16 @@
         <v>2</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J31" t="s">
         <v>0</v>
@@ -2952,18 +3167,18 @@
         <v>2</v>
       </c>
       <c r="M31" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="N31" t="s">
+        <v>11</v>
+      </c>
+      <c r="O31" t="s">
         <v>12</v>
-      </c>
-      <c r="O31" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B32">
         <v>26930</v>
@@ -2984,7 +3199,7 @@
         <v>1300</v>
       </c>
       <c r="I32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J32">
         <v>28833</v>
@@ -3007,7 +3222,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B33">
         <v>22075</v>
@@ -3028,7 +3243,7 @@
         <v>1280</v>
       </c>
       <c r="I33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J33">
         <v>19857</v>
@@ -3051,7 +3266,7 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B34">
         <v>14415</v>
@@ -3072,7 +3287,7 @@
         <v>1250</v>
       </c>
       <c r="I34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J34">
         <v>12604</v>
@@ -3095,7 +3310,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B35">
         <v>7377</v>
@@ -3116,7 +3331,7 @@
         <v>1120</v>
       </c>
       <c r="I35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J35">
         <v>6310</v>
@@ -3139,7 +3354,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B36">
         <v>31.5</v>
@@ -3160,7 +3375,7 @@
         <v>85</v>
       </c>
       <c r="I36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J36">
         <v>28</v>
@@ -3183,7 +3398,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B37">
         <v>1.8</v>
@@ -3204,7 +3419,7 @@
         <v>77</v>
       </c>
       <c r="I37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J37">
         <v>1.8</v>
@@ -3227,10 +3442,10 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B38">
-        <v>31770</v>
+        <v>47770</v>
       </c>
       <c r="C38">
         <v>49200</v>
@@ -3242,7 +3457,7 @@
         <v>56600</v>
       </c>
       <c r="I38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J38">
         <v>43160</v>
@@ -3255,6 +3470,57 @@
       </c>
       <c r="M38">
         <v>47120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39">
+        <v>1293</v>
+      </c>
+      <c r="C39">
+        <v>1177</v>
+      </c>
+      <c r="D39">
+        <v>1261</v>
+      </c>
+      <c r="E39">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="63" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I63" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I64" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J64">
+        <v>1293</v>
+      </c>
+      <c r="K64">
+        <v>1177</v>
+      </c>
+      <c r="L64">
+        <v>1261</v>
+      </c>
+      <c r="M64">
+        <v>540</v>
       </c>
     </row>
   </sheetData>
@@ -3275,7 +3541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -3287,7 +3553,7 @@
   <sheetData>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>0</v>
@@ -3299,12 +3565,12 @@
         <v>2</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="7">
         <v>31770</v>
@@ -3321,7 +3587,7 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
         <v>43160</v>
@@ -3338,7 +3604,7 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>0</v>
@@ -3350,12 +3616,12 @@
         <v>2</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="7">
         <v>43160</v>
